--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/BEFTA_Master_Definition_GlobalSearch_SearchCriteriaInvalidCaseTypeId.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/BEFTA_Master_Definition_GlobalSearch_SearchCriteriaInvalidCaseTypeId.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A70A31-0BEE-8F41-9135-DD6D2A2729D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE661B7-D66C-F346-9DF7-6B0A92A3C287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="33600" windowHeight="20500" firstSheet="18" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9791" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9864" uniqueCount="1270">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3941,6 +3941,21 @@
   </si>
   <si>
     <t>OtherCaseReference</t>
+  </si>
+  <si>
+    <t>TextFieldFName,TextFieldMName,TextFieldLName</t>
+  </si>
+  <si>
+    <t>AddressComplex1.AddressLine1</t>
+  </si>
+  <si>
+    <t>FamilyDetails.FatherFullName,FamilyDetails.MotherFullName</t>
+  </si>
+  <si>
+    <t>TextField,FamilyDetails.FatherFullName,TextField,FamilyDetails.MotherFullName</t>
+  </si>
+  <si>
+    <t>SearchCriteria</t>
   </si>
 </sst>
 </file>
@@ -4714,7 +4729,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="603">
+  <cellXfs count="605">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -6336,6 +6351,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
@@ -51332,10 +51349,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2520D-B5D1-6249-96E1-C392AB55B40B}">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51417,244 +51434,437 @@
       <c r="A4" s="556">
         <v>42736</v>
       </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="597" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D4" s="597" t="s">
+      <c r="B4" s="346"/>
+      <c r="C4" s="603" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="603" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="603" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="603" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="603" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="603" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="346"/>
+      <c r="C5" s="603" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="603" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E5" s="603" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="603" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="603" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="603" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="346"/>
+      <c r="C6" s="603" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="603" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E6" s="603" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="597" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="597" t="s">
+      <c r="F6" s="603" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="597" t="s">
+      <c r="G6" s="603" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="597" t="s">
+      <c r="H6" s="603" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="556"/>
-      <c r="B5" s="380"/>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="597"/>
-      <c r="F5" s="597"/>
-      <c r="G5" s="597"/>
-      <c r="H5" s="597"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="556"/>
-      <c r="B6" s="380"/>
-      <c r="C6" s="597"/>
-      <c r="D6" s="555"/>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="597"/>
-    </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="556"/>
-      <c r="B7" s="380"/>
-      <c r="C7" s="597"/>
-      <c r="D7" s="380"/>
-      <c r="E7" s="380"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="380"/>
+      <c r="A7" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="346"/>
+      <c r="C7" s="603" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="603" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="603" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F7" s="603" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="603" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="603" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="556"/>
-      <c r="B8" s="380"/>
-      <c r="C8" s="597"/>
-      <c r="D8" s="380"/>
-      <c r="E8" s="380"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="380"/>
-      <c r="H8" s="380"/>
+      <c r="A8" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="346"/>
+      <c r="C8" s="603" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="555" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="603" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="603" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G8" s="603" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="603" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="556"/>
-      <c r="B9" s="380"/>
-      <c r="C9" s="597"/>
-      <c r="D9" s="380"/>
-      <c r="E9" s="380"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="380"/>
-      <c r="H9" s="380"/>
+      <c r="A9" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="346"/>
+      <c r="C9" s="603" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="346" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="346" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H9" s="346" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="556"/>
-      <c r="B10" s="380"/>
-      <c r="C10" s="597"/>
-      <c r="D10" s="380"/>
-      <c r="E10" s="380"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="380"/>
-      <c r="H10" s="380"/>
+      <c r="A10" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="346"/>
+      <c r="C10" s="603" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="346" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="346" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="599" customFormat="1">
-      <c r="A11" s="600"/>
-      <c r="B11" s="601"/>
-      <c r="C11" s="601"/>
-      <c r="D11" s="380"/>
-      <c r="E11" s="380"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="380"/>
+      <c r="A11" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="346"/>
+      <c r="C11" s="603" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="346" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E11" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="346" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="556"/>
-      <c r="B12" s="380"/>
-      <c r="C12" s="597"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="380"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="380"/>
-      <c r="H12" s="380"/>
+      <c r="A12" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="346"/>
+      <c r="C12" s="603" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="346" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E12" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="346" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="556"/>
-      <c r="B13" s="380"/>
-      <c r="C13" s="597"/>
-      <c r="D13" s="380"/>
-      <c r="E13" s="380"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="380"/>
-      <c r="H13" s="380"/>
+      <c r="A13" s="600">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="604"/>
+      <c r="C13" s="604" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="346"/>
+      <c r="E13" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="346" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="556"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="597"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="380"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
+      <c r="A14" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="346"/>
+      <c r="C14" s="603" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="346"/>
+      <c r="F14" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="346" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="556"/>
-      <c r="C15" s="597"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="380"/>
+      <c r="A15" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="346"/>
+      <c r="C15" s="603" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="346" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="346"/>
+      <c r="G15" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="346" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="380"/>
-      <c r="B16" s="380"/>
-      <c r="C16" s="380"/>
-      <c r="D16" s="380"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="380"/>
+      <c r="A16" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="346"/>
+      <c r="C16" s="603" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="346" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="346"/>
+      <c r="H16" s="346" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="380"/>
-      <c r="B17" s="380"/>
-      <c r="C17" s="380"/>
-      <c r="D17" s="380"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="380"/>
+      <c r="A17" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="603" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="346" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="346"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="380"/>
-      <c r="B18" s="380"/>
-      <c r="C18" s="380"/>
-      <c r="D18" s="380"/>
-      <c r="E18" s="380"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="380"/>
-      <c r="H18" s="380"/>
+      <c r="A18" s="346"/>
+      <c r="B18" s="346"/>
+      <c r="C18" s="346"/>
+      <c r="D18" s="346"/>
+      <c r="E18" s="346"/>
+      <c r="F18" s="346"/>
+      <c r="G18" s="346"/>
+      <c r="H18" s="346"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="380"/>
-      <c r="B19" s="380"/>
-      <c r="C19" s="380"/>
-      <c r="D19" s="380"/>
-      <c r="E19" s="380"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="380"/>
+      <c r="A19" s="346"/>
+      <c r="B19" s="346"/>
+      <c r="C19" s="346"/>
+      <c r="D19" s="346"/>
+      <c r="E19" s="346"/>
+      <c r="F19" s="346"/>
+      <c r="G19" s="346"/>
+      <c r="H19" s="346"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="380"/>
-      <c r="B20" s="380"/>
-      <c r="C20" s="380"/>
-      <c r="D20" s="380"/>
-      <c r="E20" s="380"/>
-      <c r="F20" s="380"/>
-      <c r="G20" s="380"/>
-      <c r="H20" s="380"/>
+      <c r="A20" s="346"/>
+      <c r="B20" s="346"/>
+      <c r="C20" s="346"/>
+      <c r="D20" s="346"/>
+      <c r="E20" s="346"/>
+      <c r="F20" s="346"/>
+      <c r="G20" s="346"/>
+      <c r="H20" s="346"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="380"/>
-      <c r="B21" s="380"/>
-      <c r="C21" s="380"/>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
+      <c r="A21" s="346"/>
+      <c r="B21" s="346"/>
+      <c r="C21" s="346"/>
+      <c r="D21" s="346"/>
+      <c r="E21" s="346"/>
+      <c r="F21" s="346"/>
+      <c r="G21" s="346"/>
+      <c r="H21" s="346"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="380"/>
-      <c r="B22" s="380"/>
-      <c r="C22" s="380"/>
-      <c r="D22" s="380"/>
-      <c r="E22" s="380"/>
-      <c r="F22" s="380"/>
-      <c r="G22" s="380"/>
-      <c r="H22" s="380"/>
+      <c r="A22" s="346"/>
+      <c r="B22" s="346"/>
+      <c r="C22" s="346"/>
+      <c r="D22" s="346"/>
+      <c r="E22" s="346"/>
+      <c r="F22" s="346"/>
+      <c r="G22" s="346"/>
+      <c r="H22" s="346"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="380"/>
-      <c r="B23" s="380"/>
-      <c r="C23" s="380"/>
-      <c r="D23" s="380"/>
-      <c r="E23" s="380"/>
-      <c r="F23" s="380"/>
-      <c r="G23" s="380"/>
-      <c r="H23" s="380"/>
+      <c r="A23" s="346"/>
+      <c r="B23" s="346"/>
+      <c r="C23" s="346"/>
+      <c r="D23" s="346"/>
+      <c r="E23" s="346"/>
+      <c r="F23" s="346"/>
+      <c r="G23" s="346"/>
+      <c r="H23" s="346"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="380"/>
-      <c r="B24" s="380"/>
-      <c r="C24" s="380"/>
-      <c r="D24" s="380"/>
-      <c r="E24" s="380"/>
-      <c r="F24" s="380"/>
-      <c r="G24" s="380"/>
-      <c r="H24" s="380"/>
+      <c r="A24" s="346"/>
+      <c r="B24" s="346"/>
+      <c r="C24" s="346"/>
+      <c r="D24" s="346"/>
+      <c r="E24" s="346"/>
+      <c r="F24" s="346"/>
+      <c r="G24" s="346"/>
+      <c r="H24" s="346"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="380"/>
-      <c r="B25" s="380"/>
-      <c r="C25" s="380"/>
-      <c r="D25" s="380"/>
-      <c r="E25" s="380"/>
-      <c r="F25" s="380"/>
-      <c r="G25" s="380"/>
-      <c r="H25" s="380"/>
+      <c r="A25" s="346"/>
+      <c r="B25" s="346"/>
+      <c r="C25" s="346"/>
+      <c r="D25" s="346"/>
+      <c r="E25" s="346"/>
+      <c r="F25" s="346"/>
+      <c r="G25" s="346"/>
+      <c r="H25" s="346"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="380"/>
-      <c r="B26" s="380"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="380"/>
-      <c r="F26" s="380"/>
-      <c r="G26" s="380"/>
-      <c r="H26" s="380"/>
+      <c r="A26" s="346"/>
+      <c r="B26" s="346"/>
+      <c r="C26" s="346"/>
+      <c r="D26" s="346"/>
+      <c r="E26" s="346"/>
+      <c r="F26" s="346"/>
+      <c r="G26" s="346"/>
+      <c r="H26" s="346"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="346"/>
+      <c r="B27" s="346"/>
+      <c r="C27" s="346"/>
+      <c r="D27" s="346"/>
+      <c r="E27" s="346"/>
+      <c r="F27" s="346"/>
+      <c r="G27" s="346"/>
+      <c r="H27" s="346"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="346"/>
+      <c r="B28" s="346"/>
+      <c r="C28" s="346"/>
+      <c r="D28" s="346"/>
+      <c r="E28" s="346"/>
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51667,7 +51877,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51684,7 +51894,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18">
       <c r="A1" s="596" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
       <c r="B1" s="380"/>
       <c r="C1" s="380"/>
